--- a/Motion Sickness Lit Review.xlsx
+++ b/Motion Sickness Lit Review.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65673409-524B-4380-88CE-C3E10C442665}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35608AA9-B93B-47F2-9D74-5B8DA1C1F14F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,9 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://physoc.onlinelibrary.wiley.com/doi/full/10.1113/EP087385</t>
-  </si>
-  <si>
     <t>Changes in skin blood flow, respiration and blood pressure in participants reporting motion sickness during sinusoidal galvanic vestibular stimulation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,14 +305,6 @@
   </si>
   <si>
     <t>These results suggest that the carcikness can be reduced if they tilt their head against the centrifugal diretion, thus imitating the driver's head tilt. However. They only experimented with lateral acceleartion there is no study on longitudioal acceleration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风油精</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸性食物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -368,10 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晕车贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电磁感应，在大脑里生成电流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,7 +373,116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考虑一下坐车朝向的问题？面向侧面比面向前面更容易晕车？</t>
+    <t>Exertion of control reduced motion sickness induced by playing video games on a tablet computer [40].</t>
+  </si>
+  <si>
+    <t>passive restraint of head, shoulders, hips, and knees reduced motion sickness induced by playing a video game while standing [41]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standing with a wider stance width and view of the horizon may reduce postural instability and
+&amp;&amp;
+motion sickness at sea [43]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stroboscopic illumi-
+nation protected against motion sickness for back seat military helicopter personnel, perhaps by
+&amp;&amp;
+reducing retinal slip [44]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controlled regular breathing has been shown to
+provide increased motion tolerance, and may involve activation of the known inhibitory reflex between respiration and vomiting [34]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Listening to pleasant music can reduce visually induced motion sickness [49]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/260120857_Motion_control_motion_sickness_and_the_postural_dynamics_of_mobile_devices</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S000368701300149X</t>
+  </si>
+  <si>
+    <t>Motion sickness and disorientation in vehicles.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://books.google.com.hk/books?hl=zh-CN&amp;lr=&amp;id=lP_J8RCgWdkC&amp;oi=fnd&amp;pg=PA293&amp;dq=Motion+sickness+and+disorientation+in+vehicles.&amp;ots=Zxu02HVTvR&amp;sig=sREcns8OWs8ZUsvLI3N_RUy83Tg&amp;redir_esc=y#v=onepage&amp;q=Motion%20sickness%20and%20disorientation%20in%20vehicles.&amp;f=false</t>
+  </si>
+  <si>
+    <t>Console video games, postural activity, and MS during passive restraint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/237822898_Console_video_games_postural_activity_and_motion_sickness_during_passive_restraint</t>
+  </si>
+  <si>
+    <t>Motion control, MS, and the postural dynamics of mobile devices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lying supine, or aligning the body with changes in the GIF environ- ment, or avoiding head movements can reduce
+&amp;&amp;motion sickness [1] It has long been known that view of a stable
+horizon reference can increase resistance to motion sickness </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Getting your sea legs</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0066949</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/236065444_Motion_Sickness_Prevention_by_an_8-Hz_Stroboscopic_Environment_During_Air_Transport</t>
+  </si>
+  <si>
+    <t>MS prevention by an 8-Hz stroboscopic
+&amp;&amp;
+environment during air transport.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vertigo and dizziness from environ- mental motion: MS and Drivers’ disorientation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/256931436_Vertigo_and_Dizziness_from_Environmental_Motion_Visual_Vertigo_Motion_Sickness_and_Drivers'_Disorientation</t>
+  </si>
+  <si>
+    <t>Lying supine, or aligning the body with changes in the GIF environ- ment, or avoiding head movements can reduce
+&amp;&amp;
+motion sickness [1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://physoc.onlinelibrary.wiley.com/doi/full/10.1113/EP087385</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A comprehensive review on the diffenet methods used to mitigate motion sickness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast Motion Sickness Scale  and Simulator Sickness Questionnaire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behavioral methods of alleviating motion sickness: effectiveness of controlled breathing and a music audiotape.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://watermark.silverchair.com/jtm10-0108.pdf?token=AQECAHi208BE49Ooan9kkhW_Ercy7Dm3ZL_9Cf3qfKAc485ysgAAAsQwggLABgkqhkiG9w0BBwagggKxMIICrQIBADCCAqYGCSqGSIb3DQEHATAeBglghkgBZQMEAS4wEQQMLwIr0f8pU0owKK7lAgEQgIICd3568wXBjA8vRkcjaSolx0o83xd5uGKoQD1YKY4yq7dZeA7HYA00yDAZCxaBUXkt8rIZ8mAQz8Pl3SC5xchpmXgTAQiSAqTemOeDDyR6BHyr4p6Py44k8eUQGq6ZE1rlIANaKoxw4TvgNoKpGV9zMBN3-7C81LYWKWnnN2R0xSOJe3W57FmcdHS8gKeRqStkx0wawVsR0ukcE11aXvaaAi34d0qtLxk3FaMNrAfXqahWMXs5BJSU3oyP-RUEMptUF_uCA9K5QTwj61oPCNFmyuI96nCG5Q628csnBMpbLgxna61SymU6Vzfqlly33VfQ9KQXVmM9hJalGyinGVh_Nm1TlkhORXz86St6gCIHqYj4KDVBeDHH8XMbC-RUmcF8ajl_bzUMHZMGQCauI22v_3g6Lr5sdtK41ALU7Rad0RD0n72XDv5-CiXdnyhIhp1r64xYs8DBmrZ_KwQbQj1amtA1F7LahUsMoynhFuG3uQhqUWHStEzrKhr-1MGtOvmMK9T_b-B_T82f-fWL6CGQ3_V0zQQ8hFAR2-IUzMASd2Ghq5dOSD4aE4UUc4Idqjx9ZWbrQeAtZKMz-W7xNpNR1DV30MvRXOvusV_2eFat625qNnKsY9hg0C3qywT9KJOY5Vg_nbe5yFMm5hDV9UlcLFDA2b3-F8F1guhZvlSIv2ytPOpIU1Ncb8gjl-jJaxY20ubR1HfdFlm1JGycFSLgMFWuRUzjh9JjLwMSBbhE18Pp6R1UlVQLgoaJmzc9FYxxUX_RSSiCHTN5t68OtCSl72WO4b_vZBe8O2L4HgdffQ1td-ToV8PtXEpGs1M_zYoMB0u7kyQNeXw</t>
+  </si>
+  <si>
+    <t>4-point rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Results showed an overall trend for relaxing music to reduce the severity of VIMS. When factoring in the subjective pleasantness of the music, a significant reduction of VIMS occurred only when the presented music was perceived as pleasant, regardless of the music type. as realistic background sound (e.g. engine sound, traffic noise etc.) did not affect the severity of VIMS in other studies</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +490,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +539,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -467,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,6 +601,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -783,20 +886,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E18C3C8-A9E4-4BD8-A0FF-B32A64D979BB}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="93" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="55.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57" style="4" customWidth="1"/>
     <col min="3" max="3" width="32.88671875" style="9" customWidth="1"/>
     <col min="4" max="4" width="33.109375" style="11" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="51" style="11" customWidth="1"/>
+    <col min="6" max="6" width="68.109375" style="11" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
@@ -831,10 +934,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="7" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
@@ -849,15 +952,15 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>34</v>
@@ -869,113 +972,193 @@
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>43</v>
+      <c r="F8" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="C11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="11" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
+    <row r="19" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -990,9 +1173,17 @@
     <hyperlink ref="A10" r:id="rId9" xr:uid="{DD37D8A7-8303-45DB-8355-5E3D37DD74DA}"/>
     <hyperlink ref="A11" r:id="rId10" xr:uid="{198C56BD-EDE0-4319-875A-01CEEA6DADAE}"/>
     <hyperlink ref="A12" r:id="rId11" xr:uid="{64E545B0-08C0-4D94-AE90-460587964A7C}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{880333F1-15FD-4CF5-A395-5C1CB95146B1}"/>
+    <hyperlink ref="A19" r:id="rId13" xr:uid="{0956E176-E1D1-41F8-A354-AAA71187E87B}"/>
+    <hyperlink ref="A14" r:id="rId14" location="v=onepage&amp;q=Motion%20sickness%20and%20disorientation%20in%20vehicles.&amp;f=false" display="https://books.google.com.hk/books?hl=zh-CN&amp;lr=&amp;id=lP_J8RCgWdkC&amp;oi=fnd&amp;pg=PA293&amp;dq=Motion+sickness+and+disorientation+in+vehicles.&amp;ots=Zxu02HVTvR&amp;sig=sREcns8OWs8ZUsvLI3N_RUy83Tg&amp;redir_esc=y - v=onepage&amp;q=Motion%20sickness%20and%20disorientation%20in%20vehicles.&amp;f=false" xr:uid="{89D46FCA-EA34-4542-9BE2-40444CF0C0E4}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{F74D587F-2A78-47F1-8D4E-C7B13FF4BA5A}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{4DAEB613-E247-44D4-97D9-C38C933D7EBB}"/>
+    <hyperlink ref="A17" r:id="rId17" xr:uid="{933C3199-0CD8-4919-9AD2-BF7765801FA1}"/>
+    <hyperlink ref="A18" r:id="rId18" xr:uid="{CF9B452E-78B3-43BC-89D1-C2B4EAE9A0E8}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://watermark.silverchair.com/jtm10-0108.pdf?token=AQECAHi208BE49Ooan9kkhW_Ercy7Dm3ZL_9Cf3qfKAc485ysgAAAsQwggLABgkqhkiG9w0BBwagggKxMIICrQIBADCCAqYGCSqGSIb3DQEHATAeBglghkgBZQMEAS4wEQQMLwIr0f8pU0owKK7lAgEQgIICd3568wXBjA8vRkcjaSolx0o83xd5uGKoQD1YKY4yq7dZeA7HYA00yDAZCxaBUXkt8rIZ8mAQz8Pl3SC5xchpmXgTAQiSAqTemOeDDyR6BHyr4p6Py44k8eUQGq6ZE1rlIANaKoxw4TvgNoKpGV9zMBN3-7C81LYWKWnnN2R0xSOJe3W57FmcdHS8gKeRqStkx0wawVsR0ukcE11aXvaaAi34d0qtLxk3FaMNrAfXqahWMXs5BJSU3oyP-RUEMptUF_uCA9K5QTwj61oPCNFmyuI96nCG5Q628csnBMpbLgxna61SymU6Vzfqlly33VfQ9KQXVmM9hJalGyinGVh_Nm1TlkhORXz86St6gCIHqYj4KDVBeDHH8XMbC-RUmcF8ajl_bzUMHZMGQCauI22v_3g6Lr5sdtK41ALU7Rad0RD0n72XDv5-CiXdnyhIhp1r64xYs8DBmrZ_KwQbQj1amtA1F7LahUsMoynhFuG3uQhqUWHStEzrKhr-1MGtOvmMK9T_b-B_T82f-fWL6CGQ3_V0zQQ8hFAR2-IUzMASd2Ghq5dOSD4aE4UUc4Idqjx9ZWbrQeAtZKMz-W7xNpNR1DV30MvRXOvusV_2eFat625qNnKsY9hg0C3qywT9KJOY5Vg_nbe5yFMm5hDV9UlcLFDA2b3-F8F1guhZvlSIv2ytPOpIU1Ncb8gjl-jJaxY20ubR1HfdFlm1JGycFSLgMFWuRUzjh9JjLwMSBbhE18Pp6R1UlVQLgoaJmzc9FYxxUX_RSSiCHTN5t68OtCSl72WO4b_vZBe8O2L4HgdffQ1td-ToV8PtXEpGs1M_zYoMB0u7kyQNeXw" xr:uid="{5EF47144-5040-44D9-A921-45B2E98D695A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId20"/>
 </worksheet>
 </file>
 
